--- a/业绩报表/605377.xlsx
+++ b/业绩报表/605377.xlsx
@@ -1136,45 +1136,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.12</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.08</v>
-      </c>
       <c r="K6" t="n">
-        <v>1654020988.88</v>
+        <v>1097936334.86</v>
       </c>
       <c r="L6" t="n">
-        <v>170787524.38</v>
+        <v>172812155.43</v>
       </c>
       <c r="M6" t="n">
-        <v>17.24</v>
+        <v>14.86</v>
       </c>
       <c r="N6" t="n">
-        <v>-14.0562614823</v>
+        <v>-12.7063467786</v>
       </c>
       <c r="O6" t="n">
-        <v>36.245369995</v>
+        <v>55.13</v>
       </c>
       <c r="P6" t="n">
-        <v>7.039587103663</v>
+        <v>8.168876543034999</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1070598724</v>
+        <v>-0.163291914846</v>
       </c>
       <c r="R6" t="n">
-        <v>18.242206088</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-10.8825</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6.0271</v>
-      </c>
+        <v>25.3172256591</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
@@ -1200,32 +1196,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2019Q4</t>
+          <t>2020Q3</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2019年 年报</t>
+          <t>2020年 三季报</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>年报</t>
+          <t>三季报</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2020-12-09 07:19:52</t>
+          <t>2020-12-09 07:52:42</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
